--- a/data/4/20230604-a1r-yc-session4-g_transcript.xlsx
+++ b/data/4/20230604-a1r-yc-session4-g_transcript.xlsx
@@ -1,420 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marylee/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD20FE64-E44E-2640-B520-56E82178BB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10340" yWindow="500" windowWidth="15960" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="10340" yWindow="500" windowWidth="15960" windowHeight="16220" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230604-a1r-yc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"9:55"</t>
-  </si>
-  <si>
-    <t>I feel that the that raising the amount is not necessary. I think the best thing to do is to kind of cap it and keep it where it's at. And the amount of money that's spent on these campaigns is ridiculous. It could go to public programs, that an infrastructure that is very much needed in many states.</t>
-  </si>
-  <si>
-    <t>"10:22"</t>
-  </si>
-  <si>
-    <t>I agree. These first three points, make no sense to me. How do you get money out of politics by putting more money into politics? You know, the average voter does not have three grand to give to a politician. So you're just giving rich people more influence, doesn't make any sense.</t>
-  </si>
-  <si>
-    <t>"10:40"</t>
-  </si>
-  <si>
-    <t>I agree. It's no need to give the wealthy more influence over elections. So the first three are kind of moot points for me.</t>
-  </si>
-  <si>
-    <t>"10:59"</t>
-  </si>
-  <si>
-    <t>The only way I can see it the elections and the money that can be spent that should come from the federal government.</t>
-  </si>
-  <si>
-    <t>No donations know, like in kind contributions, the rich and the corporations control this. If you try to call your Senator or representative, the you might be able to email them, they talked to the people with the money. You should get so much depending on how your polling and that's that's it. It's the only way I can see to stop the 14 billion for presidential election. It's insanity.</t>
-  </si>
-  <si>
-    <t>"11:38"</t>
-  </si>
-  <si>
-    <t>Yeah, I totally agree with everybody here. I believe we should just keep it as it is too much power and we with the rich, you know, considering packs and super Pacs and then all the loopholes there's already stuff a lot of stuff that would deal with that thing we to get too focused on the core stuff and keeping everything balanced.</t>
-  </si>
-  <si>
-    <t>"11:56"</t>
-  </si>
-  <si>
-    <t>"12:09"</t>
-  </si>
-  <si>
-    <t>Can we also agree that they should reverse Citizens United and get rid of super Pacs?</t>
-  </si>
-  <si>
-    <t>"12:19"</t>
-  </si>
-  <si>
-    <t>I agree on that, they want.</t>
-  </si>
-  <si>
-    <t>"12:33"</t>
-  </si>
-  <si>
-    <t>Yeah, I totally agree with you guys. We're patched if a regulated at least 20 power going to towards individual agendas, and I think we should definitely have a better balance that way we all get represented represented. Well, so I agree with you guys.</t>
-  </si>
-  <si>
-    <t>"12:53"</t>
-  </si>
-  <si>
-    <t>"15:13"</t>
-  </si>
-  <si>
-    <t>I don't know about using public funds. I mean states are already struggling as much as possible and directing more money from the states to elections, is kind of ridiculous idea. And as far as transparency goes, I think, yeah, I think we should definitely know where every penny comes from to the donors and it should be completely disclosed because we it's important as</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rules that we know where these people are getting their money from and who's digging the money?</t>
-  </si>
-  <si>
-    <t>"15:52"</t>
-  </si>
-  <si>
-    <t>Yeah, total transparency. If you give a dollar your names on the list where it comes from and where it goes, the financing. I don't</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I don't see how to get the big money, the corporate and billionaire influence out of politics without going to Federal support of the elections in Allah and long that to be the only money. I somebody's got a better way, I'd be all for it. I don't like the federal government involved in financing it but the super-rich in the packs are running everything right now.</t>
-  </si>
-  <si>
-    <t>"16:32"</t>
-  </si>
-  <si>
-    <t>For me it's just all about the transparency. Like I'm really saying you know and also like covering not any loopholes as far as transparency. Go transparency goes. You know sometimes it is impossible where a particular person or company will provide the funds and then they'll redirected and saying it's a totally different company, just close out all the loopholes. Let's make sure whoever's contributing we actually see who it is and you know, not be blinded and I think it's one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Person or one entity and it's a digitally different one.</t>
-  </si>
-  <si>
-    <t>"17:07"</t>
-  </si>
-  <si>
-    <t>I think an option for funding campaigns might be grants. So the federal government gives grants to everything, small, business owners, and to large corporations and nonprofits, I think if individuals are interested in running for a political campaign, there should be a system where they could apply for Grants from the federal government and then the government can improve the grants and get them money. Then that way, you know, donors can also donate, if they</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Want to bite if the majority is left up to Grants from the federal government than it would help the system along better.</t>
-  </si>
-  <si>
-    <t>"17:44"</t>
-  </si>
-  <si>
-    <t>The grant idea is is an interesting one. I think that I like the idea of the Democracy voucher thing. It's kind of a silly name, but my question would be</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> How do we make sure that like third parties and independents can get on the ballot and get the same funding so that you can because the partisan, the parties are going to try to control that money and how do we prevent that?</t>
-  </si>
-  <si>
-    <t>"18:20"</t>
-  </si>
-  <si>
-    <t>So I think if we went to the Grand system, then it wouldn't be caloocan politically motivated because it's like a, you know, when you apply for a grant and fill out an application and you give all your information, everything that's approved by a grand board or an application system. And then that way several people can be on that and designate who gets the funding and who doesn't, and it would make it a lot easier and it would elevate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eight third, party, candidates, a lot more and it would create an equal playing field for these other candidates who are extremely wealthy.</t>
-  </si>
-  <si>
-    <t>"20:10"</t>
-  </si>
-  <si>
-    <t>I think this is a good idea. I think, as long as there's a lot of oversight, then this would work much better than the current system.</t>
-  </si>
-  <si>
-    <t>"20:23"</t>
-  </si>
-  <si>
-    <t>One thing that I really liked about yesterday's discussion, was the proportional representation idea, because one of the things they pointed out is that it makes gerrymandering obsolete.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> But otherwise, yeah, I agree with, I would agree with these.</t>
-  </si>
-  <si>
-    <t>"20:42"</t>
-  </si>
-  <si>
-    <t>Just to bring it up. This topics actually move the Supreme Court just a few weeks ago, reaffirm that the constitution gives the sole right to set congressional districts to the state legislatures. So it would take a congressional amendment to change this.</t>
-  </si>
-  <si>
-    <t>"21:07"</t>
-  </si>
-  <si>
-    <t>That's interesting. Jeff, I didn't know that voted on it. I wonder how the vote was, how it was laid out of which Supreme Court members voted on what?</t>
-  </si>
-  <si>
-    <t>"21:20"</t>
-  </si>
-  <si>
-    <t>The, the first.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The first one is about each individual State, setting setting up the commission's, and then the second one is about a federal law. So the first proposal still stands, it would be nice. If the state's took it upon themselves to do the right,</t>
-  </si>
-  <si>
-    <t>"21:43"</t>
-  </si>
-  <si>
-    <t>"23:08"</t>
-  </si>
-  <si>
-    <t>I think all these proposals are good. I love the idea of that the kids in the school actually can vote for the people in that who are going to be writing their school district. I know that kids these days are very vocal and trying to be more involved in politics and so I think that gives them an excellent opportunity to get more involved and to be able to guide who runs the school district.</t>
-  </si>
-  <si>
-    <t>"23:39"</t>
-  </si>
-  <si>
-    <t>I again, I'm all in favor of third parties and independents having a seat at the table. The idea of giving sixteen-year-olds some experience with elections. I think is a good one. I'm Les, I'm I'm a bit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> unsure about making a voting an obligation if somebody puts a gun to my head and says that I have to vote for Trump or Biden, I'm going to take the bullet</t>
-  </si>
-  <si>
-    <t>"24:16"</t>
-  </si>
-  <si>
-    <t>Its third parties and independent candidates definitely need an easier route to get on the ballot. They are frozen up by the main parties quite often</t>
-  </si>
-  <si>
-    <t>Federal election, a holiday, that's somebody. Definitely, no, Civic, obligation to vote. That's no, no, no, no. You don't force people to do that. And letting 16 year, olds vote on school board's, is another level of insanity that they just don't have a background in maturity information. To make informed decisions on something like that.</t>
-  </si>
-  <si>
-    <t>"24:57"</t>
-  </si>
-  <si>
-    <t>"25:02"</t>
-  </si>
-  <si>
-    <t>Vivian. We can't hear you. There's no sound.</t>
-  </si>
-  <si>
-    <t>"25:16"</t>
-  </si>
-  <si>
-    <t>A Vivian, you're not coming through.</t>
-  </si>
-  <si>
-    <t>"25:49"</t>
-  </si>
-  <si>
-    <t>I would say out of all these most intriguing for me, obviously the I'll start off with the national holiday. I think it's a double-edged sword. I mean who would have one more holidays right? But in all reality, I wouldn't know about that and one that I treat me the 6 year olds, you know. I think that invest in the youth for sure. And that's part of it. You know, you didn't I like he said, I think it was Jeff, that's it. It could be insanity. But all that, it can also help out, you know,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> If we focus on them and maybe have some, you know, some tests for them before they vote, just to make sure the grasp the idea, then I think that would be great.</t>
-  </si>
-  <si>
-    <t>"26:31"</t>
-  </si>
-  <si>
-    <t>I don't think we need to.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Have.</t>
-  </si>
-  <si>
-    <t>Qualifications to let 16 year-olds vote. We let</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adults vote without leave like without forcing them to take it tester, prove their knowledge so it gives them an experience with out before they get to the bigger elections.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> But yeah.</t>
-  </si>
-  <si>
-    <t>"26:49"</t>
-  </si>
-  <si>
-    <t>Well, that's that.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bigger stage the pros. Yeah. For sure. That makes sense.</t>
-  </si>
-  <si>
-    <t>"27:06"</t>
-  </si>
-  <si>
-    <t>You're asking sixteen-year-olds to vote for people with controlling hundreds of thousands of dollars School funds voting on, who's going to be building a not building infrastructure course, stuff course selection that they have.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Really the any of the teenagers. I know are very deficit and understanding most of that, if they even have time to look at it,</t>
-  </si>
-  <si>
-    <t>"27:33"</t>
-  </si>
-  <si>
-    <t>I'm sure I'm sure it's saying that 16 year olds could be, including the vote. Not all 16 year, old 17 year olds or students of that school district, they won't be, the only ones voting sold, their vote was still be diluted by the most part by adult voters. But I do agree that it would be nice practice at this level, and set them up for the big stage and teach them a little bit about civic responsibility.</t>
-  </si>
-  <si>
-    <t>"28:01"</t>
-  </si>
-  <si>
-    <t>One thing I wanted to add it on the holiday I think. I think it would be a benefit to have the day off. I know I have a lot of friends who are retail and their hours are crazy and a lot of times, it's really difficult for them to get to the polling place because of their ships, especially because the major roads happen,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeah, it's I mean two hours is great but it's tough. If I don't have to do any work in retail restaurants that a lot of times per called in and they have to cover shift so making it a holiday would be the best thing.</t>
-  </si>
-  <si>
-    <t>"28:27"</t>
-  </si>
-  <si>
-    <t>Nice shirt. I think I'm here in California. I think we get two hours to be able to go get mine, but not be enough though. So I get your point.</t>
-  </si>
-  <si>
-    <t>"28:57"</t>
-  </si>
-  <si>
-    <t>Yeah, I am in favor of the national holiday. I don't think that it would make a whole lot of difference because, you know, like most national holidays, most of us have to go to work. Anyway, it'll be nice. That the postal workers, get to go, get to go and vote while the rest of us are working, but, but it said it sends a good message, it sets a good precedent and it makes the election important.</t>
-  </si>
-  <si>
-    <t>"29:32"</t>
-  </si>
-  <si>
-    <t>I'll take the national holiday.</t>
-  </si>
-  <si>
-    <t>"31:17"</t>
-  </si>
-  <si>
-    <t>I'm Bradley. I think got a question.</t>
-  </si>
-  <si>
-    <t>"32:33"</t>
-  </si>
-  <si>
-    <t>Oops.</t>
-  </si>
-  <si>
-    <t>"32:38"</t>
-  </si>
-  <si>
-    <t>I didn't really have any questions. I mean, I felt like everything was really straightforward and I think it made a lot of sense so that wasn't really a lot of questions to ask for the panel.</t>
-  </si>
-  <si>
-    <t>"33:09"</t>
-  </si>
-  <si>
-    <t>Everything seemed fairly clear in Fairly obvious to us so yeah, it's hard to know what to ask the panel that. I mean, they're not going to know what we discussed, but I mean,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Everything seems pretty cut and dry it for my spec.</t>
-  </si>
-  <si>
-    <t>"33:28"</t>
-  </si>
-  <si>
-    <t>You nailed it.</t>
-  </si>
-  <si>
-    <t>"34:21"</t>
-  </si>
-  <si>
-    <t>How about that weather?</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -490,50 +119,50 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -602,14 +231,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1654,8 +1275,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C74"/>
@@ -1664,1016 +1286,1085 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.33203125" style="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="4"/>
+    <col width="8.33203125" customWidth="1" style="1" min="5" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="1" ht="20.25" customHeight="1" s="11">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="11">
+      <c r="A2" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>"9:55"</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>I feel that the that raising the amount is not necessary. I think the best thing to do is to kind of cap it and keep it where it's at. And the amount of money that's spent on these campaigns is ridiculous. It could go to public programs, that an infrastructure that is very much needed in many states.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="11">
+      <c r="A3" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>"10:22"</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>I agree. These first three points, make no sense to me. How do you get money out of politics by putting more money into politics? You know, the average voter does not have three grand to give to a politician. So you're just giving rich people more influence, doesn't make any sense.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="11">
+      <c r="A4" s="3" t="n">
         <v>10378</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>"10:40"</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="11">
+      <c r="A5" s="3" t="n">
         <v>10378</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>"10:40"</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>I agree. It's no need to give the wealthy more influence over elections. So the first three are kind of moot points for me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="11">
+      <c r="A6" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>"10:59"</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>The only way I can see it the elections and the money that can be spent that should come from the federal government.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="11">
+      <c r="A7" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>"10:59"</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>No donations know, like in kind contributions, the rich and the corporations control this. If you try to call your Senator or representative, the you might be able to email them, they talked to the people with the money. You should get so much depending on how your polling and that's that's it. It's the only way I can see to stop the 14 billion for presidential election. It's insanity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="11">
+      <c r="A8" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>"11:38"</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I totally agree with everybody here. I believe we should just keep it as it is too much power and we with the rich, you know, considering packs and super Pacs and then all the loopholes there's already stuff a lot of stuff that would deal with that thing we to get too focused on the core stuff and keeping everything balanced.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="11">
+      <c r="A9" s="3" t="n">
         <v>48384</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>"11:56"</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="11">
+      <c r="A10" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>"12:09"</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Can we also agree that they should reverse Citizens United and get rid of super Pacs?</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="11">
+      <c r="A11" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>"12:19"</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>I agree on that, they want.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="11">
+      <c r="A12" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>"12:33"</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I totally agree with you guys. We're patched if a regulated at least 20 power going to towards individual agendas, and I think we should definitely have a better balance that way we all get represented represented. Well, so I agree with you guys.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="11">
+      <c r="A13" s="3" t="n">
         <v>48384</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>"12:53"</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n"/>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="11">
+      <c r="A14" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>"15:13"</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>I don't know about using public funds. I mean states are already struggling as much as possible and directing more money from the states to elections, is kind of ridiculous idea. And as far as transparency goes, I think, yeah, I think we should definitely know where every penny comes from to the donors and it should be completely disclosed because we it's important as</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="11">
+      <c r="A15" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>"15:13"</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rules that we know where these people are getting their money from and who's digging the money?</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="11">
+      <c r="A16" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>"15:52"</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="11">
+      <c r="A17" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>"15:52"</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, total transparency. If you give a dollar your names on the list where it comes from and where it goes, the financing. I don't</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="11">
+      <c r="A18" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>"15:52"</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't see how to get the big money, the corporate and billionaire influence out of politics without going to Federal support of the elections in Allah and long that to be the only money. I somebody's got a better way, I'd be all for it. I don't like the federal government involved in financing it but the super-rich in the packs are running everything right now.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="11">
+      <c r="A19" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>"16:32"</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="11">
+      <c r="A20" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>"16:32"</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>For me it's just all about the transparency. Like I'm really saying you know and also like covering not any loopholes as far as transparency. Go transparency goes. You know sometimes it is impossible where a particular person or company will provide the funds and then they'll redirected and saying it's a totally different company, just close out all the loopholes. Let's make sure whoever's contributing we actually see who it is and you know, not be blinded and I think it's one.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="11">
+      <c r="A21" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>"16:32"</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Person or one entity and it's a digitally different one.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="11">
+      <c r="A22" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>"17:07"</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>I think an option for funding campaigns might be grants. So the federal government gives grants to everything, small, business owners, and to large corporations and nonprofits, I think if individuals are interested in running for a political campaign, there should be a system where they could apply for Grants from the federal government and then the government can improve the grants and get them money. Then that way, you know, donors can also donate, if they</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="11">
+      <c r="A23" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>"17:07"</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Want to bite if the majority is left up to Grants from the federal government than it would help the system along better.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="11">
+      <c r="A24" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>"17:44"</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>The grant idea is is an interesting one. I think that I like the idea of the Democracy voucher thing. It's kind of a silly name, but my question would be</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="11">
+      <c r="A25" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>"17:44"</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> How do we make sure that like third parties and independents can get on the ballot and get the same funding so that you can because the partisan, the parties are going to try to control that money and how do we prevent that?</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="11">
+      <c r="A26" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>"18:20"</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>So I think if we went to the Grand system, then it wouldn't be caloocan politically motivated because it's like a, you know, when you apply for a grant and fill out an application and you give all your information, everything that's approved by a grand board or an application system. And then that way several people can be on that and designate who gets the funding and who doesn't, and it would make it a lot easier and it would elevate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="11">
+      <c r="A27" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>"18:20"</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eight third, party, candidates, a lot more and it would create an equal playing field for these other candidates who are extremely wealthy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="11">
+      <c r="A28" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>"20:10"</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>I think this is a good idea. I think, as long as there's a lot of oversight, then this would work much better than the current system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="11">
+      <c r="A29" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>"20:23"</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>One thing that I really liked about yesterday's discussion, was the proportional representation idea, because one of the things they pointed out is that it makes gerrymandering obsolete.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="11">
+      <c r="A30" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>"20:23"</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> But otherwise, yeah, I agree with, I would agree with these.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="11">
+      <c r="A31" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>"20:42"</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Just to bring it up. This topics actually move the Supreme Court just a few weeks ago, reaffirm that the constitution gives the sole right to set congressional districts to the state legislatures. So it would take a congressional amendment to change this.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="11">
+      <c r="A32" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>"21:07"</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>That's interesting. Jeff, I didn't know that voted on it. I wonder how the vote was, how it was laid out of which Supreme Court members voted on what?</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="11">
+      <c r="A33" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>"21:20"</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>The, the first.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="11">
+      <c r="A34" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>"21:20"</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The first one is about each individual State, setting setting up the commission's, and then the second one is about a federal law. So the first proposal still stands, it would be nice. If the state's took it upon themselves to do the right,</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="11">
+      <c r="A35" s="3" t="n">
         <v>48384</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>"21:43"</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n"/>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="11">
+      <c r="A36" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>"23:08"</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>I think all these proposals are good. I love the idea of that the kids in the school actually can vote for the people in that who are going to be writing their school district. I know that kids these days are very vocal and trying to be more involved in politics and so I think that gives them an excellent opportunity to get more involved and to be able to guide who runs the school district.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="11">
+      <c r="A37" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>"23:08"</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="n"/>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="11">
+      <c r="A38" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>"23:39"</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>I again, I'm all in favor of third parties and independents having a seat at the table. The idea of giving sixteen-year-olds some experience with elections. I think is a good one. I'm Les, I'm I'm a bit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="11">
+      <c r="A39" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>"23:39"</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> unsure about making a voting an obligation if somebody puts a gun to my head and says that I have to vote for Trump or Biden, I'm going to take the bullet</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="11">
+      <c r="A40" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>"24:16"</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Its third parties and independent candidates definitely need an easier route to get on the ballot. They are frozen up by the main parties quite often</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="11">
+      <c r="A41" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>"24:16"</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Federal election, a holiday, that's somebody. Definitely, no, Civic, obligation to vote. That's no, no, no, no. You don't force people to do that. And letting 16 year, olds vote on school board's, is another level of insanity that they just don't have a background in maturity information. To make informed decisions on something like that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="11">
+      <c r="A42" s="3" t="n">
         <v>48384</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>"24:57"</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n"/>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="11">
+      <c r="A43" s="3" t="n">
         <v>48384</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>"24:57"</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="n"/>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="11">
+      <c r="A44" s="3" t="n">
         <v>48384</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>"24:57"</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="n"/>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="11">
+      <c r="A45" s="3" t="n">
         <v>48384</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>"24:57"</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="n"/>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="11">
+      <c r="A46" s="3" t="n">
         <v>48384</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>"24:57"</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="n"/>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="11">
+      <c r="A47" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>"25:02"</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>Vivian. We can't hear you. There's no sound.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="11">
+      <c r="A48" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>"25:16"</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>A Vivian, you're not coming through.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="11">
+      <c r="A49" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>"25:49"</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>I would say out of all these most intriguing for me, obviously the I'll start off with the national holiday. I think it's a double-edged sword. I mean who would have one more holidays right? But in all reality, I wouldn't know about that and one that I treat me the 6 year olds, you know. I think that invest in the youth for sure. And that's part of it. You know, you didn't I like he said, I think it was Jeff, that's it. It could be insanity. But all that, it can also help out, you know,</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="11">
+      <c r="A50" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>"25:49"</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> If we focus on them and maybe have some, you know, some tests for them before they vote, just to make sure the grasp the idea, then I think that would be great.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="11">
+      <c r="A51" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>"26:31"</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>I don't think we need to.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="11">
+      <c r="A52" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>"26:31"</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Have.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="11">
+      <c r="A53" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>"26:31"</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>Qualifications to let 16 year-olds vote. We let</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="11">
+      <c r="A54" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>"26:31"</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adults vote without leave like without forcing them to take it tester, prove their knowledge so it gives them an experience with out before they get to the bigger elections.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="11">
+      <c r="A55" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>"26:31"</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> But yeah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="11">
+      <c r="A56" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>"26:49"</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>Well, that's that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="11">
+      <c r="A57" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="5"/>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>"26:49"</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="n"/>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="11">
+      <c r="A58" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>"26:49"</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bigger stage the pros. Yeah. For sure. That makes sense.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="11">
+      <c r="A59" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>"27:06"</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t>You're asking sixteen-year-olds to vote for people with controlling hundreds of thousands of dollars School funds voting on, who's going to be building a not building infrastructure course, stuff course selection that they have.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="11">
+      <c r="A60" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>"27:06"</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Really the any of the teenagers. I know are very deficit and understanding most of that, if they even have time to look at it,</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1" s="11">
+      <c r="A61" s="3" t="n">
         <v>10378</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>"27:33"</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>I'm sure I'm sure it's saying that 16 year olds could be, including the vote. Not all 16 year, old 17 year olds or students of that school district, they won't be, the only ones voting sold, their vote was still be diluted by the most part by adult voters. But I do agree that it would be nice practice at this level, and set them up for the big stage and teach them a little bit about civic responsibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1" s="11">
+      <c r="A62" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>"28:01"</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>One thing I wanted to add it on the holiday I think. I think it would be a benefit to have the day off. I know I have a lot of friends who are retail and their hours are crazy and a lot of times, it's really difficult for them to get to the polling place because of their ships, especially because the major roads happen,</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" s="11">
+      <c r="A63" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="3">
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>"28:01"</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" s="11">
+      <c r="A64" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3">
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>"28:01"</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yeah, it's I mean two hours is great but it's tough. If I don't have to do any work in retail restaurants that a lot of times per called in and they have to cover shift so making it a holiday would be the best thing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1" s="11">
+      <c r="A65" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3">
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>"28:27"</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>Nice shirt. I think I'm here in California. I think we get two hours to be able to go get mine, but not be enough though. So I get your point.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" s="11">
+      <c r="A66" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="3">
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>"28:57"</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I am in favor of the national holiday. I don't think that it would make a whole lot of difference because, you know, like most national holidays, most of us have to go to work. Anyway, it'll be nice. That the postal workers, get to go, get to go and vote while the rest of us are working, but, but it said it sends a good message, it sets a good precedent and it makes the election important.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1" s="11">
+      <c r="A67" s="3" t="n">
         <v>48476</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="3">
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>"29:32"</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>I'll take the national holiday.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1" s="11">
+      <c r="A68" s="3" t="n">
         <v>10378</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="3">
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>"31:17"</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t>I'm Bradley. I think got a question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1" s="11">
+      <c r="A69" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="3">
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>"32:33"</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>Oops.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="20" customHeight="1" s="11">
+      <c r="A70" s="3" t="n">
         <v>48446</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="3">
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t>"32:38"</t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t>I didn't really have any questions. I mean, I felt like everything was really straightforward and I think it made a lot of sense so that wasn't really a lot of questions to ask for the panel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="20" customHeight="1" s="11">
+      <c r="A71" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="3">
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t>"33:09"</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>Everything seemed fairly clear in Fairly obvious to us so yeah, it's hard to know what to ask the panel that. I mean, they're not going to know what we discussed, but I mean,</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1" s="11">
+      <c r="A72" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="3">
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>"33:09"</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Everything seems pretty cut and dry it for my spec.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="20" customHeight="1" s="11">
+      <c r="A73" s="3" t="n">
         <v>48316</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="3">
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t>"33:28"</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>You nailed it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="20" customHeight="1" s="11">
+      <c r="A74" s="3" t="n">
         <v>48260</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>103</v>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>"34:21"</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t>How about that weather?</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C9F51F-75E0-AE48-B11F-A663C8625573}">
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" ht="160" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" ht="112" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="64" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="64" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="160" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" ht="80" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="80" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="112" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="96" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" ht="80" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" ht="80" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" ht="112" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>